--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhwani\Desktop\Quick Access Folder\1. UIPath\Dubai Government WOrkshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDA19D-1179-4CFA-AF42-9C1CA30FB598}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,25 +564,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="1.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="7"/>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -592,7 +594,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -604,7 +606,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -614,7 +616,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -622,7 +624,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -632,7 +634,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -642,7 +644,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -652,7 +654,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -660,7 +662,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -668,7 +670,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="11" t="s">
         <v>11</v>
@@ -678,7 +680,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -694,7 +696,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -702,7 +704,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -710,7 +712,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -718,7 +720,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -726,7 +728,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -734,7 +736,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -742,7 +744,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -750,7 +752,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="9"/>
       <c r="C20" s="11" t="s">
         <v>10</v>
@@ -760,7 +762,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
@@ -776,7 +778,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="9"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -784,7 +786,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -792,7 +794,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -800,7 +802,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -808,7 +810,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -816,7 +818,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="9"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -824,7 +826,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -832,7 +834,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -842,7 +844,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="9"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -852,7 +854,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -862,7 +864,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -872,7 +874,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -882,7 +884,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -892,7 +894,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDA19D-1179-4CFA-AF42-9C1CA30FB598}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0C95F-96EF-4841-AF53-026654B39991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>INVOICE</t>
   </si>
@@ -67,24 +67,6 @@
   </si>
   <si>
     <t>Rate /Hour</t>
-  </si>
-  <si>
-    <t>Overhead Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spare Parts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labour Cost </t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>VAT (5%)</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
   </si>
   <si>
     <t>(Company Name)</t>
@@ -137,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,26 +143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -264,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -272,17 +234,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,104 +544,104 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="7"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="8"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="9"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,213 +654,153 @@
       <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="9"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="9"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B27" s="9"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="9"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="9"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="9"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="9"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="9"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="9"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya\Documents\UiPath\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B0C95F-96EF-4841-AF53-026654B39991}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9FA73C-5EF5-4843-B2BD-271F2095A31E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>INVOICE</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>(Company Name)</t>
+  </si>
+  <si>
+    <t>(Department Name)</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -245,6 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,8 +564,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="8"/>
@@ -596,8 +599,8 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -607,7 +610,7 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -616,7 +619,9 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -632,9 +637,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -642,26 +645,28 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
@@ -682,17 +687,15 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
-      <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -700,26 +703,28 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
@@ -740,10 +745,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
@@ -794,13 +799,21 @@
       <c r="F28" s="2"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="7"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
